--- a/experiment_3/output/output_latex.xlsx
+++ b/experiment_3/output/output_latex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,31 +455,43 @@
       <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.874</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.771</v>
+        <v>0.873</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.991</v>
+        <v>-2.993</v>
       </c>
       <c r="E2" t="n">
-        <v>1.021</v>
+        <v>1.018</v>
       </c>
       <c r="F2" t="n">
-        <v>45.765</v>
+        <v>7.254</v>
       </c>
       <c r="G2" t="n">
-        <v>1608</v>
+        <v>0.141</v>
       </c>
       <c r="H2" t="n">
-        <v>6386</v>
+        <v>0.127</v>
+      </c>
+      <c r="I2" t="n">
+        <v>412</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1919</v>
       </c>
     </row>
     <row r="3">
@@ -487,25 +499,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C3" t="n">
-        <v>0.836</v>
+        <v>0.921</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.067</v>
+        <v>-3.003</v>
       </c>
       <c r="E3" t="n">
-        <v>1.036</v>
+        <v>1.005</v>
       </c>
       <c r="F3" t="n">
-        <v>39.215</v>
+        <v>5.634</v>
       </c>
       <c r="G3" t="n">
-        <v>1626</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>6455</v>
+        <v>0.079</v>
+      </c>
+      <c r="I3" t="n">
+        <v>378</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1759</v>
       </c>
     </row>
     <row r="4">
@@ -513,25 +531,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.917</v>
+        <v>0.971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.861</v>
+        <v>0.895</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.98</v>
+        <v>-3.015</v>
       </c>
       <c r="E4" t="n">
-        <v>1.004</v>
+        <v>1.034</v>
       </c>
       <c r="F4" t="n">
-        <v>33.588</v>
+        <v>4.181</v>
       </c>
       <c r="G4" t="n">
-        <v>1454</v>
+        <v>0.115</v>
       </c>
       <c r="H4" t="n">
-        <v>5766</v>
+        <v>0.105</v>
+      </c>
+      <c r="I4" t="n">
+        <v>152</v>
+      </c>
+      <c r="J4" t="n">
+        <v>695</v>
       </c>
     </row>
     <row r="5">
@@ -539,25 +563,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.977</v>
+        <v>1.006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.782</v>
+        <v>0.848</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.961</v>
+        <v>-3.023</v>
       </c>
       <c r="E5" t="n">
-        <v>1.005</v>
+        <v>1.047</v>
       </c>
       <c r="F5" t="n">
-        <v>28.965</v>
+        <v>3.145</v>
       </c>
       <c r="G5" t="n">
-        <v>1377</v>
+        <v>0.161</v>
       </c>
       <c r="H5" t="n">
-        <v>5458</v>
+        <v>0.152</v>
+      </c>
+      <c r="I5" t="n">
+        <v>178</v>
+      </c>
+      <c r="J5" t="n">
+        <v>815</v>
       </c>
     </row>
     <row r="6">
@@ -565,25 +595,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>1.043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.758</v>
+        <v>0.873</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.02</v>
+        <v>-3.06</v>
       </c>
       <c r="E6" t="n">
-        <v>1.038</v>
+        <v>1.053</v>
       </c>
       <c r="F6" t="n">
-        <v>24.679</v>
+        <v>2.218</v>
       </c>
       <c r="G6" t="n">
-        <v>1097</v>
+        <v>0.156</v>
       </c>
       <c r="H6" t="n">
-        <v>4324</v>
+        <v>0.127</v>
+      </c>
+      <c r="I6" t="n">
+        <v>206</v>
+      </c>
+      <c r="J6" t="n">
+        <v>942</v>
       </c>
     </row>
     <row r="7">
@@ -591,25 +627,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.986</v>
+        <v>1.038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.747</v>
+        <v>0.918</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.997</v>
+        <v>-3.019</v>
       </c>
       <c r="E7" t="n">
-        <v>1.039</v>
+        <v>1.022</v>
       </c>
       <c r="F7" t="n">
-        <v>20.086</v>
+        <v>1.335</v>
       </c>
       <c r="G7" t="n">
-        <v>725</v>
+        <v>0.095</v>
       </c>
       <c r="H7" t="n">
-        <v>2841</v>
+        <v>0.082</v>
+      </c>
+      <c r="I7" t="n">
+        <v>209</v>
+      </c>
+      <c r="J7" t="n">
+        <v>957</v>
       </c>
     </row>
     <row r="8">
@@ -617,25 +659,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.068</v>
+        <v>1.026</v>
       </c>
       <c r="C8" t="n">
-        <v>0.793</v>
+        <v>0.946</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.084</v>
+        <v>-2.976</v>
       </c>
       <c r="E8" t="n">
-        <v>1.06</v>
+        <v>0.999</v>
       </c>
       <c r="F8" t="n">
-        <v>15.8</v>
+        <v>0.576</v>
       </c>
       <c r="G8" t="n">
-        <v>775</v>
+        <v>0.065</v>
       </c>
       <c r="H8" t="n">
-        <v>3038</v>
+        <v>0.054</v>
+      </c>
+      <c r="I8" t="n">
+        <v>178</v>
+      </c>
+      <c r="J8" t="n">
+        <v>812</v>
       </c>
     </row>
     <row r="9">
@@ -643,25 +691,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.089</v>
+        <v>1.004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.846</v>
+        <v>0.981</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.08</v>
+        <v>-2.976</v>
       </c>
       <c r="E9" t="n">
-        <v>1.05</v>
+        <v>0.993</v>
       </c>
       <c r="F9" t="n">
-        <v>11.749</v>
+        <v>0.091</v>
       </c>
       <c r="G9" t="n">
-        <v>771</v>
+        <v>0.031</v>
       </c>
       <c r="H9" t="n">
-        <v>3022</v>
+        <v>0.024</v>
+      </c>
+      <c r="I9" t="n">
+        <v>175</v>
+      </c>
+      <c r="J9" t="n">
+        <v>796</v>
       </c>
     </row>
     <row r="10">
@@ -669,25 +723,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.08</v>
+        <v>1.002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.886</v>
+        <v>0.978</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.033</v>
+        <v>-2.976</v>
       </c>
       <c r="E10" t="n">
-        <v>1.027</v>
+        <v>0.994</v>
       </c>
       <c r="F10" t="n">
-        <v>8.24</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>731</v>
+        <v>0.033</v>
       </c>
       <c r="H10" t="n">
-        <v>2862</v>
+        <v>0.024</v>
+      </c>
+      <c r="I10" t="n">
+        <v>192</v>
+      </c>
+      <c r="J10" t="n">
+        <v>871</v>
       </c>
     </row>
     <row r="11">
@@ -695,25 +755,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.052</v>
+        <v>1.002</v>
       </c>
       <c r="C11" t="n">
-        <v>0.895</v>
+        <v>0.98</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.969</v>
+        <v>-2.975</v>
       </c>
       <c r="E11" t="n">
-        <v>1.007</v>
+        <v>0.992</v>
       </c>
       <c r="F11" t="n">
-        <v>4.906</v>
+        <v>0.081</v>
       </c>
       <c r="G11" t="n">
-        <v>672</v>
+        <v>0.033</v>
       </c>
       <c r="H11" t="n">
-        <v>2627</v>
+        <v>0.025</v>
+      </c>
+      <c r="I11" t="n">
+        <v>162</v>
+      </c>
+      <c r="J11" t="n">
+        <v>730</v>
       </c>
     </row>
     <row r="12">
@@ -721,155 +787,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.009</v>
+        <v>1.001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.964</v>
+        <v>0.984</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.995</v>
+        <v>-2.971</v>
       </c>
       <c r="E12" t="n">
-        <v>1.009</v>
+        <v>0.987</v>
       </c>
       <c r="F12" t="n">
-        <v>2.243</v>
+        <v>0.077</v>
       </c>
       <c r="G12" t="n">
-        <v>661</v>
+        <v>0.036</v>
       </c>
       <c r="H12" t="n">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.006</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-2.982</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.109</v>
-      </c>
-      <c r="G13" t="n">
-        <v>557</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.004</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-2.98</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="G14" t="n">
-        <v>551</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1.006</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-2.98</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="G15" t="n">
-        <v>570</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.974</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-2.983</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="G16" t="n">
-        <v>607</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.008</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-2.98</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="G17" t="n">
-        <v>654</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2537</v>
+        <v>0.029</v>
+      </c>
+      <c r="I12" t="n">
+        <v>142</v>
+      </c>
+      <c r="J12" t="n">
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_3/output/output_latex.xlsx
+++ b/experiment_3/output/output_latex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,43 +455,31 @@
       <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.873</v>
+        <v>0.771</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.993</v>
+        <v>-2.991</v>
       </c>
       <c r="E2" t="n">
-        <v>1.018</v>
+        <v>1.021</v>
       </c>
       <c r="F2" t="n">
-        <v>7.254</v>
+        <v>45.765</v>
       </c>
       <c r="G2" t="n">
-        <v>0.141</v>
+        <v>1608</v>
       </c>
       <c r="H2" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="I2" t="n">
-        <v>412</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1919</v>
+        <v>6386</v>
       </c>
     </row>
     <row r="3">
@@ -499,31 +487,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="C3" t="n">
-        <v>0.921</v>
+        <v>0.836</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.003</v>
+        <v>-3.067</v>
       </c>
       <c r="E3" t="n">
-        <v>1.005</v>
+        <v>1.036</v>
       </c>
       <c r="F3" t="n">
-        <v>5.634</v>
+        <v>39.215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08500000000000001</v>
+        <v>1626</v>
       </c>
       <c r="H3" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="I3" t="n">
-        <v>378</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1759</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="4">
@@ -531,31 +513,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.971</v>
+        <v>0.917</v>
       </c>
       <c r="C4" t="n">
-        <v>0.895</v>
+        <v>0.861</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.015</v>
+        <v>-2.98</v>
       </c>
       <c r="E4" t="n">
-        <v>1.034</v>
+        <v>1.004</v>
       </c>
       <c r="F4" t="n">
-        <v>4.181</v>
+        <v>33.588</v>
       </c>
       <c r="G4" t="n">
-        <v>0.115</v>
+        <v>1454</v>
       </c>
       <c r="H4" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="I4" t="n">
-        <v>152</v>
-      </c>
-      <c r="J4" t="n">
-        <v>695</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="5">
@@ -563,31 +539,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.006</v>
+        <v>0.977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.848</v>
+        <v>0.782</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.023</v>
+        <v>-2.961</v>
       </c>
       <c r="E5" t="n">
-        <v>1.047</v>
+        <v>1.005</v>
       </c>
       <c r="F5" t="n">
-        <v>3.145</v>
+        <v>28.965</v>
       </c>
       <c r="G5" t="n">
-        <v>0.161</v>
+        <v>1377</v>
       </c>
       <c r="H5" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="I5" t="n">
-        <v>178</v>
-      </c>
-      <c r="J5" t="n">
-        <v>815</v>
+        <v>5458</v>
       </c>
     </row>
     <row r="6">
@@ -595,31 +565,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.043</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.873</v>
+        <v>0.758</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.06</v>
+        <v>-3.02</v>
       </c>
       <c r="E6" t="n">
-        <v>1.053</v>
+        <v>1.038</v>
       </c>
       <c r="F6" t="n">
-        <v>2.218</v>
+        <v>24.679</v>
       </c>
       <c r="G6" t="n">
-        <v>0.156</v>
+        <v>1097</v>
       </c>
       <c r="H6" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="I6" t="n">
-        <v>206</v>
-      </c>
-      <c r="J6" t="n">
-        <v>942</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="7">
@@ -627,31 +591,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.038</v>
+        <v>0.986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.918</v>
+        <v>0.747</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.019</v>
+        <v>-2.997</v>
       </c>
       <c r="E7" t="n">
-        <v>1.022</v>
+        <v>1.039</v>
       </c>
       <c r="F7" t="n">
-        <v>1.335</v>
+        <v>20.086</v>
       </c>
       <c r="G7" t="n">
-        <v>0.095</v>
+        <v>725</v>
       </c>
       <c r="H7" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="I7" t="n">
-        <v>209</v>
-      </c>
-      <c r="J7" t="n">
-        <v>957</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="8">
@@ -659,31 +617,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.026</v>
+        <v>1.068</v>
       </c>
       <c r="C8" t="n">
-        <v>0.946</v>
+        <v>0.793</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.976</v>
+        <v>-3.084</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999</v>
+        <v>1.06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.576</v>
+        <v>15.8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.065</v>
+        <v>775</v>
       </c>
       <c r="H8" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="I8" t="n">
-        <v>178</v>
-      </c>
-      <c r="J8" t="n">
-        <v>812</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="9">
@@ -691,31 +643,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.004</v>
+        <v>1.089</v>
       </c>
       <c r="C9" t="n">
-        <v>0.981</v>
+        <v>0.846</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.976</v>
+        <v>-3.08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.993</v>
+        <v>1.05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.091</v>
+        <v>11.749</v>
       </c>
       <c r="G9" t="n">
-        <v>0.031</v>
+        <v>771</v>
       </c>
       <c r="H9" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="I9" t="n">
-        <v>175</v>
-      </c>
-      <c r="J9" t="n">
-        <v>796</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="10">
@@ -723,31 +669,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.002</v>
+        <v>1.08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.978</v>
+        <v>0.886</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.976</v>
+        <v>-3.033</v>
       </c>
       <c r="E10" t="n">
-        <v>0.994</v>
+        <v>1.027</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08599999999999999</v>
+        <v>8.24</v>
       </c>
       <c r="G10" t="n">
-        <v>0.033</v>
+        <v>731</v>
       </c>
       <c r="H10" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="I10" t="n">
-        <v>192</v>
-      </c>
-      <c r="J10" t="n">
-        <v>871</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="11">
@@ -755,31 +695,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.002</v>
+        <v>1.052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.98</v>
+        <v>0.895</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.975</v>
+        <v>-2.969</v>
       </c>
       <c r="E11" t="n">
-        <v>0.992</v>
+        <v>1.007</v>
       </c>
       <c r="F11" t="n">
-        <v>0.081</v>
+        <v>4.906</v>
       </c>
       <c r="G11" t="n">
-        <v>0.033</v>
+        <v>672</v>
       </c>
       <c r="H11" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="I11" t="n">
-        <v>162</v>
-      </c>
-      <c r="J11" t="n">
-        <v>730</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="12">
@@ -787,31 +721,155 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.001</v>
+        <v>1.009</v>
       </c>
       <c r="C12" t="n">
-        <v>0.984</v>
+        <v>0.964</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.971</v>
+        <v>-2.995</v>
       </c>
       <c r="E12" t="n">
-        <v>0.987</v>
+        <v>1.009</v>
       </c>
       <c r="F12" t="n">
-        <v>0.077</v>
+        <v>2.243</v>
       </c>
       <c r="G12" t="n">
-        <v>0.036</v>
+        <v>661</v>
       </c>
       <c r="H12" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="I12" t="n">
-        <v>142</v>
-      </c>
-      <c r="J12" t="n">
-        <v>633</v>
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2.982</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="G13" t="n">
+        <v>557</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="G14" t="n">
+        <v>551</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="G15" t="n">
+        <v>570</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-2.983</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G16" t="n">
+        <v>607</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="G17" t="n">
+        <v>654</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2537</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_3/output/output_latex.xlsx
+++ b/experiment_3/output/output_latex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,31 +455,49 @@
       <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.874</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.771</v>
+        <v>0.873</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.991</v>
+        <v>-2.993</v>
       </c>
       <c r="E2" t="n">
-        <v>1.021</v>
+        <v>1.018</v>
       </c>
       <c r="F2" t="n">
-        <v>45.765</v>
+        <v>7.254</v>
       </c>
       <c r="G2" t="n">
-        <v>1608</v>
+        <v>0.141</v>
       </c>
       <c r="H2" t="n">
-        <v>6386</v>
+        <v>0.127</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="J2" t="n">
+        <v>412</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1919</v>
       </c>
     </row>
     <row r="3">
@@ -487,25 +505,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C3" t="n">
-        <v>0.836</v>
+        <v>0.921</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.067</v>
+        <v>-3.003</v>
       </c>
       <c r="E3" t="n">
-        <v>1.036</v>
+        <v>1.005</v>
       </c>
       <c r="F3" t="n">
-        <v>39.215</v>
+        <v>5.634</v>
       </c>
       <c r="G3" t="n">
-        <v>1626</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>6455</v>
+        <v>0.079</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="J3" t="n">
+        <v>378</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1759</v>
       </c>
     </row>
     <row r="4">
@@ -513,25 +540,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.917</v>
+        <v>0.971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.861</v>
+        <v>0.895</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.98</v>
+        <v>-3.015</v>
       </c>
       <c r="E4" t="n">
-        <v>1.004</v>
+        <v>1.034</v>
       </c>
       <c r="F4" t="n">
-        <v>33.588</v>
+        <v>4.181</v>
       </c>
       <c r="G4" t="n">
-        <v>1454</v>
+        <v>0.115</v>
       </c>
       <c r="H4" t="n">
-        <v>5766</v>
+        <v>0.105</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="J4" t="n">
+        <v>152</v>
+      </c>
+      <c r="K4" t="n">
+        <v>695</v>
       </c>
     </row>
     <row r="5">
@@ -539,25 +575,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.977</v>
+        <v>1.006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.782</v>
+        <v>0.848</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.961</v>
+        <v>-3.023</v>
       </c>
       <c r="E5" t="n">
-        <v>1.005</v>
+        <v>1.047</v>
       </c>
       <c r="F5" t="n">
-        <v>28.965</v>
+        <v>3.145</v>
       </c>
       <c r="G5" t="n">
-        <v>1377</v>
+        <v>0.161</v>
       </c>
       <c r="H5" t="n">
-        <v>5458</v>
+        <v>0.152</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="J5" t="n">
+        <v>178</v>
+      </c>
+      <c r="K5" t="n">
+        <v>815</v>
       </c>
     </row>
     <row r="6">
@@ -565,25 +610,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>1.043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.758</v>
+        <v>0.873</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.02</v>
+        <v>-3.06</v>
       </c>
       <c r="E6" t="n">
-        <v>1.038</v>
+        <v>1.053</v>
       </c>
       <c r="F6" t="n">
-        <v>24.679</v>
+        <v>2.218</v>
       </c>
       <c r="G6" t="n">
-        <v>1097</v>
+        <v>0.156</v>
       </c>
       <c r="H6" t="n">
-        <v>4324</v>
+        <v>0.127</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>206</v>
+      </c>
+      <c r="K6" t="n">
+        <v>942</v>
       </c>
     </row>
     <row r="7">
@@ -591,25 +645,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.986</v>
+        <v>1.038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.747</v>
+        <v>0.918</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.997</v>
+        <v>-3.019</v>
       </c>
       <c r="E7" t="n">
-        <v>1.039</v>
+        <v>1.022</v>
       </c>
       <c r="F7" t="n">
-        <v>20.086</v>
+        <v>1.335</v>
       </c>
       <c r="G7" t="n">
-        <v>725</v>
+        <v>0.095</v>
       </c>
       <c r="H7" t="n">
-        <v>2841</v>
+        <v>0.082</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="J7" t="n">
+        <v>209</v>
+      </c>
+      <c r="K7" t="n">
+        <v>957</v>
       </c>
     </row>
     <row r="8">
@@ -617,25 +680,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.068</v>
+        <v>1.026</v>
       </c>
       <c r="C8" t="n">
-        <v>0.793</v>
+        <v>0.946</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.084</v>
+        <v>-2.976</v>
       </c>
       <c r="E8" t="n">
-        <v>1.06</v>
+        <v>0.999</v>
       </c>
       <c r="F8" t="n">
-        <v>15.8</v>
+        <v>0.576</v>
       </c>
       <c r="G8" t="n">
-        <v>775</v>
+        <v>0.065</v>
       </c>
       <c r="H8" t="n">
-        <v>3038</v>
+        <v>0.054</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="J8" t="n">
+        <v>178</v>
+      </c>
+      <c r="K8" t="n">
+        <v>812</v>
       </c>
     </row>
     <row r="9">
@@ -643,25 +715,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.089</v>
+        <v>1.004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.846</v>
+        <v>0.981</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.08</v>
+        <v>-2.976</v>
       </c>
       <c r="E9" t="n">
-        <v>1.05</v>
+        <v>0.993</v>
       </c>
       <c r="F9" t="n">
-        <v>11.749</v>
+        <v>0.091</v>
       </c>
       <c r="G9" t="n">
-        <v>771</v>
+        <v>0.031</v>
       </c>
       <c r="H9" t="n">
-        <v>3022</v>
+        <v>0.024</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="J9" t="n">
+        <v>175</v>
+      </c>
+      <c r="K9" t="n">
+        <v>796</v>
       </c>
     </row>
     <row r="10">
@@ -669,25 +750,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.08</v>
+        <v>1.002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.886</v>
+        <v>0.978</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.033</v>
+        <v>-2.976</v>
       </c>
       <c r="E10" t="n">
-        <v>1.027</v>
+        <v>0.994</v>
       </c>
       <c r="F10" t="n">
-        <v>8.24</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>731</v>
+        <v>0.033</v>
       </c>
       <c r="H10" t="n">
-        <v>2862</v>
+        <v>0.024</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="J10" t="n">
+        <v>192</v>
+      </c>
+      <c r="K10" t="n">
+        <v>871</v>
       </c>
     </row>
     <row r="11">
@@ -695,25 +785,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.052</v>
+        <v>1.002</v>
       </c>
       <c r="C11" t="n">
-        <v>0.895</v>
+        <v>0.98</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.969</v>
+        <v>-2.975</v>
       </c>
       <c r="E11" t="n">
-        <v>1.007</v>
+        <v>0.992</v>
       </c>
       <c r="F11" t="n">
-        <v>4.906</v>
+        <v>0.081</v>
       </c>
       <c r="G11" t="n">
-        <v>672</v>
+        <v>0.033</v>
       </c>
       <c r="H11" t="n">
-        <v>2627</v>
+        <v>0.025</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="J11" t="n">
+        <v>162</v>
+      </c>
+      <c r="K11" t="n">
+        <v>730</v>
       </c>
     </row>
     <row r="12">
@@ -721,155 +820,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.009</v>
+        <v>1.001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.964</v>
+        <v>0.984</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.995</v>
+        <v>-2.971</v>
       </c>
       <c r="E12" t="n">
-        <v>1.009</v>
+        <v>0.987</v>
       </c>
       <c r="F12" t="n">
-        <v>2.243</v>
+        <v>0.077</v>
       </c>
       <c r="G12" t="n">
-        <v>661</v>
+        <v>0.036</v>
       </c>
       <c r="H12" t="n">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.006</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-2.982</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.109</v>
-      </c>
-      <c r="G13" t="n">
-        <v>557</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.004</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-2.98</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="G14" t="n">
-        <v>551</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1.006</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-2.98</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="G15" t="n">
-        <v>570</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.974</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-2.983</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="G16" t="n">
-        <v>607</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.008</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-2.98</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="G17" t="n">
-        <v>654</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2537</v>
+        <v>0.029</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="J12" t="n">
+        <v>142</v>
+      </c>
+      <c r="K12" t="n">
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_3/output/output_latex.xlsx
+++ b/experiment_3/output/output_latex.xlsx
@@ -491,7 +491,7 @@
         <v>0.127</v>
       </c>
       <c r="I2" t="n">
-        <v>0.577</v>
+        <v>0.527</v>
       </c>
       <c r="J2" t="n">
         <v>412</v>
@@ -526,7 +526,7 @@
         <v>0.079</v>
       </c>
       <c r="I3" t="n">
-        <v>0.549</v>
+        <v>0.516</v>
       </c>
       <c r="J3" t="n">
         <v>378</v>
@@ -561,7 +561,7 @@
         <v>0.105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.676</v>
+        <v>0.597</v>
       </c>
       <c r="J4" t="n">
         <v>152</v>
@@ -596,7 +596,7 @@
         <v>0.152</v>
       </c>
       <c r="I5" t="n">
-        <v>0.699</v>
+        <v>0.614</v>
       </c>
       <c r="J5" t="n">
         <v>178</v>
@@ -631,7 +631,7 @@
         <v>0.127</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.601</v>
       </c>
       <c r="J6" t="n">
         <v>206</v>
@@ -666,7 +666,7 @@
         <v>0.082</v>
       </c>
       <c r="I7" t="n">
-        <v>0.645</v>
+        <v>0.576</v>
       </c>
       <c r="J7" t="n">
         <v>209</v>
@@ -701,7 +701,7 @@
         <v>0.054</v>
       </c>
       <c r="I8" t="n">
-        <v>0.648</v>
+        <v>0.582</v>
       </c>
       <c r="J8" t="n">
         <v>178</v>
@@ -736,7 +736,7 @@
         <v>0.024</v>
       </c>
       <c r="I9" t="n">
-        <v>0.636</v>
+        <v>0.574</v>
       </c>
       <c r="J9" t="n">
         <v>175</v>
@@ -771,7 +771,7 @@
         <v>0.024</v>
       </c>
       <c r="I10" t="n">
-        <v>0.639</v>
+        <v>0.575</v>
       </c>
       <c r="J10" t="n">
         <v>192</v>
@@ -806,7 +806,7 @@
         <v>0.025</v>
       </c>
       <c r="I11" t="n">
-        <v>0.629</v>
+        <v>0.569</v>
       </c>
       <c r="J11" t="n">
         <v>162</v>
@@ -841,7 +841,7 @@
         <v>0.029</v>
       </c>
       <c r="I12" t="n">
-        <v>0.615</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="J12" t="n">
         <v>142</v>

--- a/experiment_3/output/output_latex.xlsx
+++ b/experiment_3/output/output_latex.xlsx
@@ -491,13 +491,13 @@
         <v>0.127</v>
       </c>
       <c r="I2" t="n">
-        <v>0.527</v>
+        <v>0.295</v>
       </c>
       <c r="J2" t="n">
-        <v>412</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>-3.003</v>
       </c>
       <c r="E3" t="n">
-        <v>1.005</v>
+        <v>1.006</v>
       </c>
       <c r="F3" t="n">
         <v>5.634</v>
@@ -526,13 +526,13 @@
         <v>0.079</v>
       </c>
       <c r="I3" t="n">
-        <v>0.516</v>
+        <v>0.356</v>
       </c>
       <c r="J3" t="n">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1759</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -561,13 +561,13 @@
         <v>0.105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.597</v>
+        <v>0.437</v>
       </c>
       <c r="J4" t="n">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -596,13 +596,13 @@
         <v>0.152</v>
       </c>
       <c r="I5" t="n">
-        <v>0.614</v>
+        <v>0.511</v>
       </c>
       <c r="J5" t="n">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>815</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
         <v>0.127</v>
       </c>
       <c r="I6" t="n">
-        <v>0.601</v>
+        <v>0.48</v>
       </c>
       <c r="J6" t="n">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>942</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -666,13 +666,13 @@
         <v>0.082</v>
       </c>
       <c r="I7" t="n">
-        <v>0.576</v>
+        <v>0.332</v>
       </c>
       <c r="J7" t="n">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>957</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -701,13 +701,13 @@
         <v>0.054</v>
       </c>
       <c r="I8" t="n">
-        <v>0.582</v>
+        <v>0.283</v>
       </c>
       <c r="J8" t="n">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>812</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -721,7 +721,7 @@
         <v>0.981</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.976</v>
+        <v>-2.977</v>
       </c>
       <c r="E9" t="n">
         <v>0.993</v>
@@ -733,16 +733,16 @@
         <v>0.031</v>
       </c>
       <c r="H9" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="I9" t="n">
-        <v>0.574</v>
+        <v>0.28</v>
       </c>
       <c r="J9" t="n">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>796</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -771,13 +771,13 @@
         <v>0.024</v>
       </c>
       <c r="I10" t="n">
-        <v>0.575</v>
+        <v>0.279</v>
       </c>
       <c r="J10" t="n">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>871</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -785,34 +785,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.002</v>
+        <v>1.005</v>
       </c>
       <c r="C11" t="n">
-        <v>0.98</v>
+        <v>0.975</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.975</v>
+        <v>-2.978</v>
       </c>
       <c r="E11" t="n">
-        <v>0.992</v>
+        <v>0.995</v>
       </c>
       <c r="F11" t="n">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="G11" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="H11" t="n">
         <v>0.025</v>
       </c>
       <c r="I11" t="n">
-        <v>0.569</v>
+        <v>0.28</v>
       </c>
       <c r="J11" t="n">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>730</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -820,34 +820,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.001</v>
+        <v>1.005</v>
       </c>
       <c r="C12" t="n">
-        <v>0.984</v>
+        <v>0.977</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.971</v>
+        <v>-2.977</v>
       </c>
       <c r="E12" t="n">
-        <v>0.987</v>
+        <v>0.993</v>
       </c>
       <c r="F12" t="n">
         <v>0.077</v>
       </c>
       <c r="G12" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="H12" t="n">
-        <v>0.029</v>
+        <v>0.023</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="J12" t="n">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>633</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_3/output/output_latex.xlsx
+++ b/experiment_3/output/output_latex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="K1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -494,9 +497,12 @@
         <v>0.295</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0.219</v>
       </c>
       <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -529,9 +535,12 @@
         <v>0.356</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>0.181</v>
       </c>
       <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -564,9 +573,12 @@
         <v>0.437</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0.148</v>
       </c>
       <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -599,9 +611,12 @@
         <v>0.511</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0.133</v>
       </c>
       <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -634,9 +649,12 @@
         <v>0.48</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>0.108</v>
       </c>
       <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -669,9 +687,12 @@
         <v>0.332</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>0.078</v>
       </c>
       <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -704,9 +725,12 @@
         <v>0.283</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>0.059</v>
       </c>
       <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -739,9 +763,12 @@
         <v>0.28</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>0.043</v>
       </c>
       <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -774,9 +801,12 @@
         <v>0.279</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>0.042</v>
       </c>
       <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -809,9 +839,12 @@
         <v>0.28</v>
       </c>
       <c r="J11" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="K11" t="n">
         <v>4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -844,9 +877,12 @@
         <v>0.28</v>
       </c>
       <c r="J12" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K12" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>4</v>
       </c>
     </row>

--- a/experiment_3/output/output_latex.xlsx
+++ b/experiment_3/output/output_latex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,15 +458,6 @@
       <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,22 +479,13 @@
         <v>7.254</v>
       </c>
       <c r="G2" t="n">
-        <v>0.141</v>
+        <v>0.127</v>
       </c>
       <c r="H2" t="n">
-        <v>0.127</v>
+        <v>0.219</v>
       </c>
       <c r="I2" t="n">
         <v>0.295</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.219</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -526,22 +508,13 @@
         <v>5.634</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.079</v>
       </c>
       <c r="H3" t="n">
-        <v>0.079</v>
+        <v>0.181</v>
       </c>
       <c r="I3" t="n">
         <v>0.356</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.181</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +537,13 @@
         <v>4.181</v>
       </c>
       <c r="G4" t="n">
-        <v>0.115</v>
+        <v>0.105</v>
       </c>
       <c r="H4" t="n">
-        <v>0.105</v>
+        <v>0.148</v>
       </c>
       <c r="I4" t="n">
         <v>0.437</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.148</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +566,13 @@
         <v>3.145</v>
       </c>
       <c r="G5" t="n">
-        <v>0.161</v>
+        <v>0.152</v>
       </c>
       <c r="H5" t="n">
-        <v>0.152</v>
+        <v>0.133</v>
       </c>
       <c r="I5" t="n">
         <v>0.511</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -640,22 +595,13 @@
         <v>2.218</v>
       </c>
       <c r="G6" t="n">
-        <v>0.156</v>
+        <v>0.127</v>
       </c>
       <c r="H6" t="n">
-        <v>0.127</v>
+        <v>0.108</v>
       </c>
       <c r="I6" t="n">
         <v>0.48</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -678,22 +624,13 @@
         <v>1.335</v>
       </c>
       <c r="G7" t="n">
-        <v>0.095</v>
+        <v>0.082</v>
       </c>
       <c r="H7" t="n">
-        <v>0.082</v>
+        <v>0.078</v>
       </c>
       <c r="I7" t="n">
         <v>0.332</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -716,22 +653,13 @@
         <v>0.576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.065</v>
+        <v>0.054</v>
       </c>
       <c r="H8" t="n">
-        <v>0.054</v>
+        <v>0.059</v>
       </c>
       <c r="I8" t="n">
         <v>0.283</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -754,22 +682,13 @@
         <v>0.091</v>
       </c>
       <c r="G9" t="n">
-        <v>0.031</v>
+        <v>0.023</v>
       </c>
       <c r="H9" t="n">
-        <v>0.023</v>
+        <v>0.043</v>
       </c>
       <c r="I9" t="n">
         <v>0.28</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -792,22 +711,13 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.033</v>
+        <v>0.024</v>
       </c>
       <c r="H10" t="n">
-        <v>0.024</v>
+        <v>0.042</v>
       </c>
       <c r="I10" t="n">
         <v>0.279</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -815,37 +725,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.005</v>
+        <v>1.002</v>
       </c>
       <c r="C11" t="n">
-        <v>0.975</v>
+        <v>0.98</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.978</v>
+        <v>-2.975</v>
       </c>
       <c r="E11" t="n">
-        <v>0.995</v>
+        <v>0.992</v>
       </c>
       <c r="F11" t="n">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="G11" t="n">
-        <v>0.034</v>
+        <v>0.025</v>
       </c>
       <c r="H11" t="n">
-        <v>0.025</v>
+        <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="12">
@@ -868,22 +769,13 @@
         <v>0.077</v>
       </c>
       <c r="G12" t="n">
-        <v>0.034</v>
+        <v>0.023</v>
       </c>
       <c r="H12" t="n">
-        <v>0.023</v>
+        <v>0.041</v>
       </c>
       <c r="I12" t="n">
         <v>0.28</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
